--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf1-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf1-Nrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Fgf1</t>
   </si>
   <si>
     <t>Nrp1</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.161357666666667</v>
+        <v>1.190640666666667</v>
       </c>
       <c r="H2">
-        <v>3.484073</v>
+        <v>3.571922</v>
       </c>
       <c r="I2">
-        <v>0.1270850363824361</v>
+        <v>0.1136540143525372</v>
       </c>
       <c r="J2">
-        <v>0.1270850363824361</v>
+        <v>0.1136540143525372</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>87.94127933333334</v>
+        <v>133.7780026666667</v>
       </c>
       <c r="N2">
-        <v>263.823838</v>
+        <v>401.334008</v>
       </c>
       <c r="O2">
-        <v>0.4109331243514438</v>
+        <v>0.50863533211804</v>
       </c>
       <c r="P2">
-        <v>0.4109331243514438</v>
+        <v>0.5086353321180399</v>
       </c>
       <c r="Q2">
-        <v>102.1312789702416</v>
+        <v>159.2815302803751</v>
       </c>
       <c r="R2">
-        <v>919.1815107321742</v>
+        <v>1433.533772523376</v>
       </c>
       <c r="S2">
-        <v>0.05222345105895137</v>
+        <v>0.05780844733675127</v>
       </c>
       <c r="T2">
-        <v>0.05222345105895137</v>
+        <v>0.05780844733675126</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.161357666666667</v>
+        <v>1.190640666666667</v>
       </c>
       <c r="H3">
-        <v>3.484073</v>
+        <v>3.571922</v>
       </c>
       <c r="I3">
-        <v>0.1270850363824361</v>
+        <v>0.1136540143525372</v>
       </c>
       <c r="J3">
-        <v>0.1270850363824361</v>
+        <v>0.1136540143525372</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>157.325913</v>
       </c>
       <c r="O3">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="P3">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="Q3">
-        <v>60.903885075961</v>
+        <v>62.439543312754</v>
       </c>
       <c r="R3">
-        <v>548.1349656836491</v>
+        <v>561.9558898147861</v>
       </c>
       <c r="S3">
-        <v>0.03114237962780429</v>
+        <v>0.02266134086590243</v>
       </c>
       <c r="T3">
-        <v>0.03114237962780429</v>
+        <v>0.02266134086590242</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.161357666666667</v>
+        <v>1.190640666666667</v>
       </c>
       <c r="H4">
-        <v>3.484073</v>
+        <v>3.571922</v>
       </c>
       <c r="I4">
-        <v>0.1270850363824361</v>
+        <v>0.1136540143525372</v>
       </c>
       <c r="J4">
-        <v>0.1270850363824361</v>
+        <v>0.1136540143525372</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.95316166666667</v>
+        <v>21.197691</v>
       </c>
       <c r="N4">
-        <v>56.85948500000001</v>
+        <v>63.593073</v>
       </c>
       <c r="O4">
-        <v>0.08856457398691947</v>
+        <v>0.08059542216956049</v>
       </c>
       <c r="P4">
-        <v>0.08856457398691946</v>
+        <v>0.08059542216956046</v>
       </c>
       <c r="Q4">
-        <v>22.01139960915611</v>
+        <v>25.238832944034</v>
       </c>
       <c r="R4">
-        <v>198.102596482405</v>
+        <v>227.149496496306</v>
       </c>
       <c r="S4">
-        <v>0.01125523210732261</v>
+        <v>0.009159993268008027</v>
       </c>
       <c r="T4">
-        <v>0.01125523210732261</v>
+        <v>0.009159993268008024</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.161357666666667</v>
+        <v>1.190640666666667</v>
       </c>
       <c r="H5">
-        <v>3.484073</v>
+        <v>3.571922</v>
       </c>
       <c r="I5">
-        <v>0.1270850363824361</v>
+        <v>0.1136540143525372</v>
       </c>
       <c r="J5">
-        <v>0.1270850363824361</v>
+        <v>0.1136540143525372</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>54.667459</v>
+        <v>55.59592133333333</v>
       </c>
       <c r="N5">
-        <v>164.002377</v>
+        <v>166.787764</v>
       </c>
       <c r="O5">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220374</v>
       </c>
       <c r="P5">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220373</v>
       </c>
       <c r="Q5">
-        <v>63.48847262683567</v>
+        <v>66.19476484026755</v>
       </c>
       <c r="R5">
-        <v>571.3962536415211</v>
+        <v>595.752883562408</v>
       </c>
       <c r="S5">
-        <v>0.03246397358835782</v>
+        <v>0.02402423288187553</v>
       </c>
       <c r="T5">
-        <v>0.03246397358835782</v>
+        <v>0.02402423288187553</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>15.504521</v>
       </c>
       <c r="I6">
-        <v>0.565542861868062</v>
+        <v>0.4933341355895272</v>
       </c>
       <c r="J6">
-        <v>0.565542861868062</v>
+        <v>0.4933341355895272</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>87.94127933333334</v>
+        <v>133.7780026666667</v>
       </c>
       <c r="N6">
-        <v>263.823838</v>
+        <v>401.334008</v>
       </c>
       <c r="O6">
-        <v>0.4109331243514438</v>
+        <v>0.50863533211804</v>
       </c>
       <c r="P6">
-        <v>0.4109331243514438</v>
+        <v>0.5086353321180399</v>
       </c>
       <c r="Q6">
-        <v>454.4958040635109</v>
+        <v>691.3879505611299</v>
       </c>
       <c r="R6">
-        <v>4090.462236571599</v>
+        <v>6222.491555050169</v>
       </c>
       <c r="S6">
-        <v>0.2324002951820997</v>
+        <v>0.2509271719007454</v>
       </c>
       <c r="T6">
-        <v>0.2324002951820997</v>
+        <v>0.2509271719007453</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>15.504521</v>
       </c>
       <c r="I7">
-        <v>0.565542861868062</v>
+        <v>0.4933341355895272</v>
       </c>
       <c r="J7">
-        <v>0.565542861868062</v>
+        <v>0.4933341355895272</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>157.325913</v>
       </c>
       <c r="O7">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="P7">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="Q7">
         <v>271.029213550297</v>
@@ -883,10 +883,10 @@
         <v>2439.262921952673</v>
       </c>
       <c r="S7">
-        <v>0.1385871303297215</v>
+        <v>0.09836531574416865</v>
       </c>
       <c r="T7">
-        <v>0.1385871303297215</v>
+        <v>0.09836531574416864</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>15.504521</v>
       </c>
       <c r="I8">
-        <v>0.565542861868062</v>
+        <v>0.4933341355895272</v>
       </c>
       <c r="J8">
-        <v>0.565542861868062</v>
+        <v>0.4933341355895272</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>18.95316166666667</v>
+        <v>21.197691</v>
       </c>
       <c r="N8">
-        <v>56.85948500000001</v>
+        <v>63.593073</v>
       </c>
       <c r="O8">
-        <v>0.08856457398691947</v>
+        <v>0.08059542216956049</v>
       </c>
       <c r="P8">
-        <v>0.08856457398691946</v>
+        <v>0.08059542216956046</v>
       </c>
       <c r="Q8">
-        <v>97.95323102574281</v>
+        <v>109.553348420337</v>
       </c>
       <c r="R8">
-        <v>881.5790792316851</v>
+        <v>985.9801357830331</v>
       </c>
       <c r="S8">
-        <v>0.05008706263268815</v>
+        <v>0.03976047292849314</v>
       </c>
       <c r="T8">
-        <v>0.05008706263268815</v>
+        <v>0.03976047292849313</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +977,10 @@
         <v>15.504521</v>
       </c>
       <c r="I9">
-        <v>0.565542861868062</v>
+        <v>0.4933341355895272</v>
       </c>
       <c r="J9">
-        <v>0.565542861868062</v>
+        <v>0.4933341355895272</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.667459</v>
+        <v>55.59592133333333</v>
       </c>
       <c r="N9">
-        <v>164.002377</v>
+        <v>166.787764</v>
       </c>
       <c r="O9">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220374</v>
       </c>
       <c r="P9">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220373</v>
       </c>
       <c r="Q9">
-        <v>282.5309220273797</v>
+        <v>287.3293766090049</v>
       </c>
       <c r="R9">
-        <v>2542.778298246417</v>
+        <v>2585.964389481044</v>
       </c>
       <c r="S9">
-        <v>0.1444683737235526</v>
+        <v>0.1042811750161201</v>
       </c>
       <c r="T9">
-        <v>0.1444683737235526</v>
+        <v>0.1042811750161201</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.808898333333333</v>
+        <v>4.037194</v>
       </c>
       <c r="H10">
-        <v>8.426695</v>
+        <v>12.111582</v>
       </c>
       <c r="I10">
-        <v>0.3073721017495019</v>
+        <v>0.3853751326204581</v>
       </c>
       <c r="J10">
-        <v>0.3073721017495019</v>
+        <v>0.3853751326204581</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>87.94127933333334</v>
+        <v>133.7780026666667</v>
       </c>
       <c r="N10">
-        <v>263.823838</v>
+        <v>401.334008</v>
       </c>
       <c r="O10">
-        <v>0.4109331243514438</v>
+        <v>0.50863533211804</v>
       </c>
       <c r="P10">
-        <v>0.4109331243514438</v>
+        <v>0.5086353321180399</v>
       </c>
       <c r="Q10">
-        <v>247.0181129506011</v>
+        <v>540.0877496978508</v>
       </c>
       <c r="R10">
-        <v>2223.16301655541</v>
+        <v>4860.789747280656</v>
       </c>
       <c r="S10">
-        <v>0.1263093781103927</v>
+        <v>0.1960154085704404</v>
       </c>
       <c r="T10">
-        <v>0.1263093781103927</v>
+        <v>0.1960154085704404</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.808898333333333</v>
+        <v>4.037194</v>
       </c>
       <c r="H11">
-        <v>8.426695</v>
+        <v>12.111582</v>
       </c>
       <c r="I11">
-        <v>0.3073721017495019</v>
+        <v>0.3853751326204581</v>
       </c>
       <c r="J11">
-        <v>0.3073721017495019</v>
+        <v>0.3853751326204581</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>157.325913</v>
       </c>
       <c r="O11">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="P11">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="Q11">
-        <v>147.304164938615</v>
+        <v>211.718410669374</v>
       </c>
       <c r="R11">
-        <v>1325.737484447535</v>
+        <v>1905.465696024366</v>
       </c>
       <c r="S11">
-        <v>0.07532199661078293</v>
+        <v>0.07683949653081122</v>
       </c>
       <c r="T11">
-        <v>0.07532199661078293</v>
+        <v>0.07683949653081121</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.808898333333333</v>
+        <v>4.037194</v>
       </c>
       <c r="H12">
-        <v>8.426695</v>
+        <v>12.111582</v>
       </c>
       <c r="I12">
-        <v>0.3073721017495019</v>
+        <v>0.3853751326204581</v>
       </c>
       <c r="J12">
-        <v>0.3073721017495019</v>
+        <v>0.3853751326204581</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.95316166666667</v>
+        <v>21.197691</v>
       </c>
       <c r="N12">
-        <v>56.85948500000001</v>
+        <v>63.593073</v>
       </c>
       <c r="O12">
-        <v>0.08856457398691947</v>
+        <v>0.08059542216956049</v>
       </c>
       <c r="P12">
-        <v>0.08856457398691946</v>
+        <v>0.08059542216956046</v>
       </c>
       <c r="Q12">
-        <v>53.23750421689724</v>
+        <v>85.57919091905401</v>
       </c>
       <c r="R12">
-        <v>479.1375379520751</v>
+        <v>770.2127182714861</v>
       </c>
       <c r="S12">
-        <v>0.0272222792469087</v>
+        <v>0.03105947150719618</v>
       </c>
       <c r="T12">
-        <v>0.0272222792469087</v>
+        <v>0.03105947150719617</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4.037194</v>
+      </c>
+      <c r="H13">
+        <v>12.111582</v>
+      </c>
+      <c r="I13">
+        <v>0.3853751326204581</v>
+      </c>
+      <c r="J13">
+        <v>0.3853751326204581</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>55.59592133333333</v>
+      </c>
+      <c r="N13">
+        <v>166.787764</v>
+      </c>
+      <c r="O13">
+        <v>0.2113804164220374</v>
+      </c>
+      <c r="P13">
+        <v>0.2113804164220373</v>
+      </c>
+      <c r="Q13">
+        <v>224.4515200314054</v>
+      </c>
+      <c r="R13">
+        <v>2020.063680282648</v>
+      </c>
+      <c r="S13">
+        <v>0.0814607560120103</v>
+      </c>
+      <c r="T13">
+        <v>0.08146075601201028</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>2.808898333333333</v>
-      </c>
-      <c r="H13">
-        <v>8.426695</v>
-      </c>
-      <c r="I13">
-        <v>0.3073721017495019</v>
-      </c>
-      <c r="J13">
-        <v>0.3073721017495019</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>54.667459</v>
-      </c>
-      <c r="N13">
-        <v>164.002377</v>
-      </c>
-      <c r="O13">
-        <v>0.255450795093328</v>
-      </c>
-      <c r="P13">
-        <v>0.255450795093328</v>
-      </c>
-      <c r="Q13">
-        <v>153.5553344726683</v>
-      </c>
-      <c r="R13">
-        <v>1381.998010254015</v>
-      </c>
-      <c r="S13">
-        <v>0.07851844778141759</v>
-      </c>
-      <c r="T13">
-        <v>0.07851844778141759</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.08000233333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.240007</v>
+      </c>
+      <c r="I14">
+        <v>0.007636717437477471</v>
+      </c>
+      <c r="J14">
+        <v>0.007636717437477472</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>133.7780026666667</v>
+      </c>
+      <c r="N14">
+        <v>401.334008</v>
+      </c>
+      <c r="O14">
+        <v>0.50863533211804</v>
+      </c>
+      <c r="P14">
+        <v>0.5086353321180399</v>
+      </c>
+      <c r="Q14">
+        <v>10.70255236200622</v>
+      </c>
+      <c r="R14">
+        <v>96.32297125805601</v>
+      </c>
+      <c r="S14">
+        <v>0.003884304310102981</v>
+      </c>
+      <c r="T14">
+        <v>0.003884304310102981</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.08000233333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.240007</v>
+      </c>
+      <c r="I15">
+        <v>0.007636717437477471</v>
+      </c>
+      <c r="J15">
+        <v>0.007636717437477472</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>52.441971</v>
+      </c>
+      <c r="N15">
+        <v>157.325913</v>
+      </c>
+      <c r="O15">
+        <v>0.1993888292903622</v>
+      </c>
+      <c r="P15">
+        <v>0.1993888292903622</v>
+      </c>
+      <c r="Q15">
+        <v>4.195480044599</v>
+      </c>
+      <c r="R15">
+        <v>37.759320401391</v>
+      </c>
+      <c r="S15">
+        <v>0.001522676149479928</v>
+      </c>
+      <c r="T15">
+        <v>0.001522676149479928</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.08000233333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.240007</v>
+      </c>
+      <c r="I16">
+        <v>0.007636717437477471</v>
+      </c>
+      <c r="J16">
+        <v>0.007636717437477472</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>21.197691</v>
+      </c>
+      <c r="N16">
+        <v>63.593073</v>
+      </c>
+      <c r="O16">
+        <v>0.08059542216956049</v>
+      </c>
+      <c r="P16">
+        <v>0.08059542216956046</v>
+      </c>
+      <c r="Q16">
+        <v>1.695864741279</v>
+      </c>
+      <c r="R16">
+        <v>15.262782671511</v>
+      </c>
+      <c r="S16">
+        <v>0.0006154844658631409</v>
+      </c>
+      <c r="T16">
+        <v>0.0006154844658631408</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.08000233333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.240007</v>
+      </c>
+      <c r="I17">
+        <v>0.007636717437477471</v>
+      </c>
+      <c r="J17">
+        <v>0.007636717437477472</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>55.59592133333333</v>
+      </c>
+      <c r="N17">
+        <v>166.787764</v>
+      </c>
+      <c r="O17">
+        <v>0.2113804164220374</v>
+      </c>
+      <c r="P17">
+        <v>0.2113804164220373</v>
+      </c>
+      <c r="Q17">
+        <v>4.447803430483111</v>
+      </c>
+      <c r="R17">
+        <v>40.03023087434799</v>
+      </c>
+      <c r="S17">
+        <v>0.001614252512031422</v>
+      </c>
+      <c r="T17">
+        <v>0.001614252512031422</v>
       </c>
     </row>
   </sheetData>
